--- a/public/report-new-example.xlsx
+++ b/public/report-new-example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greek\Desktop\api\frontend\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greek\Desktop\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1EB42A-12EC-4833-8723-EAB92BAB7811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9D3C2D-E5B2-4763-9CAD-92CB3DD46746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,25 +234,25 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44564</c:v>
+                  <c:v>44684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44565</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44566</c:v>
+                  <c:v>44686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44567</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44568</c:v>
+                  <c:v>44688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44569</c:v>
+                  <c:v>44689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44570</c:v>
+                  <c:v>44690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,25 +385,25 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44564</c:v>
+                  <c:v>44684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44565</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44566</c:v>
+                  <c:v>44686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44567</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44568</c:v>
+                  <c:v>44688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44569</c:v>
+                  <c:v>44689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44570</c:v>
+                  <c:v>44690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,25 +536,25 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44564</c:v>
+                  <c:v>44684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44565</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44566</c:v>
+                  <c:v>44686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44567</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44568</c:v>
+                  <c:v>44688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44569</c:v>
+                  <c:v>44689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44570</c:v>
+                  <c:v>44690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,25 +687,25 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44564</c:v>
+                  <c:v>44684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44565</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44566</c:v>
+                  <c:v>44686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44567</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44568</c:v>
+                  <c:v>44688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44569</c:v>
+                  <c:v>44689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44570</c:v>
+                  <c:v>44690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,25 +838,25 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44564</c:v>
+                  <c:v>44684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44565</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44566</c:v>
+                  <c:v>44686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44567</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44568</c:v>
+                  <c:v>44688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44569</c:v>
+                  <c:v>44689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44570</c:v>
+                  <c:v>44690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,25 +1268,25 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44564</c:v>
+                  <c:v>44684</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44565</c:v>
+                  <c:v>44685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44566</c:v>
+                  <c:v>44686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44567</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44568</c:v>
+                  <c:v>44688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44569</c:v>
+                  <c:v>44689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44570</c:v>
+                  <c:v>44690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,25 +1385,25 @@
                       <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>44564</c:v>
+                        <c:v>44684</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>44565</c:v>
+                        <c:v>44685</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>44566</c:v>
+                        <c:v>44686</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>44567</c:v>
+                        <c:v>44687</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>44568</c:v>
+                        <c:v>44688</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>44569</c:v>
+                        <c:v>44689</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>44570</c:v>
+                        <c:v>44690</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1495,25 +1495,25 @@
                       <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>44564</c:v>
+                        <c:v>44684</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>44565</c:v>
+                        <c:v>44685</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>44566</c:v>
+                        <c:v>44686</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>44567</c:v>
+                        <c:v>44687</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>44568</c:v>
+                        <c:v>44688</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>44569</c:v>
+                        <c:v>44689</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>44570</c:v>
+                        <c:v>44690</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1605,25 +1605,25 @@
                       <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>44564</c:v>
+                        <c:v>44684</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>44565</c:v>
+                        <c:v>44685</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>44566</c:v>
+                        <c:v>44686</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>44567</c:v>
+                        <c:v>44687</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>44568</c:v>
+                        <c:v>44688</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>44569</c:v>
+                        <c:v>44689</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>44570</c:v>
+                        <c:v>44690</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1715,25 +1715,25 @@
                       <c:formatCode>m/d/yyyy</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>44564</c:v>
+                        <c:v>44684</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>44565</c:v>
+                        <c:v>44685</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>44566</c:v>
+                        <c:v>44686</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>44567</c:v>
+                        <c:v>44687</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>44568</c:v>
+                        <c:v>44688</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>44569</c:v>
+                        <c:v>44689</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>44570</c:v>
+                        <c:v>44690</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3384,7 +3384,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44564</v>
+        <v>44684</v>
       </c>
       <c r="B2">
         <v>82</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44565</v>
+        <v>44685</v>
       </c>
       <c r="B3">
         <v>79</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44566</v>
+        <v>44686</v>
       </c>
       <c r="B4">
         <v>85</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44567</v>
+        <v>44687</v>
       </c>
       <c r="B5">
         <v>91</v>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44568</v>
+        <v>44688</v>
       </c>
       <c r="B6">
         <v>88</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44569</v>
+        <v>44689</v>
       </c>
       <c r="B7">
         <v>76</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44570</v>
+        <v>44690</v>
       </c>
       <c r="B8">
         <v>68</v>
